--- a/standard_location_name/outputs/standard_location_name.xlsx
+++ b/standard_location_name/outputs/standard_location_name.xlsx
@@ -557,7 +557,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Redpath Mining Contractors and Engineers Australia</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
@@ -571,7 +575,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>GLENCORE - GEORGE FISHER</t>
+          <t>REDPATH MINING CONTRACTORS AND ENGINEERS AUSTRALIA</t>
         </is>
       </c>
     </row>
@@ -678,11 +682,7 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Detour Lake Mine</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>DETOUR LAKE</t>
@@ -700,7 +700,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>DETOUR LAKE MINE</t>
+          <t>DETOUR LAKE</t>
         </is>
       </c>
     </row>
@@ -733,11 +733,7 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Basemine</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
           <t>BASEMINE</t>
@@ -917,7 +913,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Eagle Gold Project</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>VICTORIA GOLD</t>
+          <t>EAGLE GOLD PROJECT</t>
         </is>
       </c>
     </row>
@@ -2239,7 +2239,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Akyem Gold Mine</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
@@ -2253,7 +2257,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>NEWMONT AKYEM</t>
+          <t>AKYEM GOLD MINE</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2680,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Peña Colorada</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
@@ -2723,11 +2731,7 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Line Creek Operations</t>
-        </is>
-      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
           <t>LINE CREEK</t>
@@ -2745,7 +2749,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>LINE CREEK OPERATIONS</t>
+          <t>LINE CREEK</t>
         </is>
       </c>
     </row>
@@ -2774,7 +2778,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Styldrift Mine</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
@@ -2788,7 +2796,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BAFOKENG STYLDRIFT</t>
+          <t>STYLDRIFT MINE</t>
         </is>
       </c>
     </row>
@@ -3094,7 +3102,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Mina Milpillas</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
@@ -3108,7 +3120,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>CANANEA MILPILLAS</t>
+          <t>MINA MILPILLAS</t>
         </is>
       </c>
     </row>
@@ -3698,7 +3710,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Evolution Mining</t>
+        </is>
+      </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
@@ -3712,7 +3728,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>KALGOORLIE</t>
+          <t>EVOLUTION MINING</t>
         </is>
       </c>
     </row>
@@ -3901,11 +3917,7 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Callide Coal Mine</t>
-        </is>
-      </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
           <t>CALLIDE</t>
@@ -3923,7 +3935,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>CALLIDE COAL MINE</t>
+          <t>CALLIDE</t>
         </is>
       </c>
     </row>
@@ -4443,11 +4455,7 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Coal Valley Resources</t>
-        </is>
-      </c>
+      <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
           <t>COAL VALLEY</t>
@@ -4465,7 +4473,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>COAL VALLEY RESOURCES</t>
+          <t>COAL VALLEY</t>
         </is>
       </c>
     </row>
@@ -4572,7 +4580,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Franke Copper Mine</t>
+        </is>
+      </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
@@ -4586,7 +4598,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>FRANKE</t>
+          <t>FRANKE COPPER MINE</t>
         </is>
       </c>
     </row>
@@ -4642,7 +4654,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Cerro Matoso</t>
+        </is>
+      </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
@@ -4656,7 +4672,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>BARRANQUILLA</t>
+          <t>CERRO MATOSO</t>
         </is>
       </c>
     </row>
@@ -4790,7 +4806,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Ahafo Gold Mine</t>
+        </is>
+      </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
@@ -4804,7 +4824,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>NEWMONT AHAFO</t>
+          <t>AHAFO GOLD MINE</t>
         </is>
       </c>
     </row>
@@ -4833,7 +4853,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Hanson Aggregates</t>
+        </is>
+      </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
@@ -4847,7 +4871,7 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>ALFRETON UK</t>
+          <t>HANSON AGGREGATES</t>
         </is>
       </c>
     </row>
@@ -5192,7 +5216,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Middlemount Coal Mine</t>
+        </is>
+      </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
@@ -5206,7 +5234,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>MIDDLEMOUNT</t>
+          <t>MIDDLEMOUNT COAL MINE</t>
         </is>
       </c>
     </row>
@@ -5340,7 +5368,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Chepstow Plant Hire</t>
+        </is>
+      </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
@@ -5354,7 +5386,7 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>CARDIFF</t>
+          <t>CHEPSTOW PLANT HIRE</t>
         </is>
       </c>
     </row>
@@ -5461,7 +5493,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Chepstow Plant Hire</t>
+        </is>
+      </c>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
@@ -5475,7 +5511,7 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>BIRTLEY</t>
+          <t>CHEPSTOW PLANT HIRE</t>
         </is>
       </c>
     </row>
@@ -6101,7 +6137,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr"/>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Tarmac a CRH Company</t>
+        </is>
+      </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
@@ -6115,7 +6155,7 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>FALKIRK - SCOTLAND UK</t>
+          <t>TARMAC A CRH COMPANY</t>
         </is>
       </c>
     </row>
@@ -6296,7 +6336,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr"/>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Pogo Gold Mine</t>
+        </is>
+      </c>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr">
@@ -6306,7 +6350,7 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>BAYSWATER SALES</t>
+          <t>POGO GOLD MINE</t>
         </is>
       </c>
     </row>
@@ -6518,11 +6562,7 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>Fort Hills Oil Sands Project</t>
-        </is>
-      </c>
+      <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr">
         <is>
           <t>FORT HILLS</t>
@@ -6540,7 +6580,7 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>FORT HILLS OIL SANDS PROJECT</t>
+          <t>FORT HILLS</t>
         </is>
       </c>
     </row>
@@ -7368,7 +7408,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G176" t="inlineStr"/>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Ernest Henry Mine</t>
+        </is>
+      </c>
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
@@ -7382,7 +7426,7 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>ERNEST HENRY MINING</t>
+          <t>ERNEST HENRY MINE</t>
         </is>
       </c>
     </row>
@@ -7509,11 +7553,7 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>Greenhills Operations</t>
-        </is>
-      </c>
+      <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr">
         <is>
           <t>GREENHILLS</t>
@@ -7531,7 +7571,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>GREENHILLS OPERATIONS</t>
+          <t>GREENHILLS</t>
         </is>
       </c>
     </row>
@@ -7989,11 +8029,7 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>Mount Milligan Mine</t>
-        </is>
-      </c>
+      <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr">
         <is>
           <t>MOUNT MILLIGAN</t>
@@ -8011,7 +8047,7 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>MOUNT MILLIGAN MINE</t>
+          <t>MOUNT MILLIGAN</t>
         </is>
       </c>
     </row>
@@ -8305,7 +8341,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G199" t="inlineStr"/>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Olympic Dam Mine</t>
+        </is>
+      </c>
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
@@ -8319,7 +8359,7 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>BHP - OLYMPIC DAM</t>
+          <t>OLYMPIC DAM MINE</t>
         </is>
       </c>
     </row>
@@ -8660,7 +8700,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G208" t="inlineStr"/>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Highland Valley Copper</t>
+        </is>
+      </c>
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr">
@@ -8670,7 +8714,7 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>TECK-HIGHLAND VALLEY</t>
+          <t>HIGHLAND VALLEY COPPER</t>
         </is>
       </c>
     </row>
@@ -8703,11 +8747,7 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>Aurora North Mine</t>
-        </is>
-      </c>
+      <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr">
         <is>
           <t>AURORA</t>
@@ -8725,7 +8765,7 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>AURORA NORTH MINE</t>
+          <t>AURORA</t>
         </is>
       </c>
     </row>
@@ -9156,7 +9196,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G220" t="inlineStr"/>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Minera El Roble</t>
+        </is>
+      </c>
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
@@ -9170,7 +9214,7 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>ZACATECAS (EL ROBLE)</t>
+          <t>MINERA EL ROBLE</t>
         </is>
       </c>
     </row>
@@ -9522,11 +9566,7 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>Fording River Operations</t>
-        </is>
-      </c>
+      <c r="G230" t="inlineStr"/>
       <c r="H230" t="inlineStr">
         <is>
           <t>FORDING RIVER</t>
@@ -9540,7 +9580,7 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>FORDING RIVER OPERATIONS</t>
+          <t>FORDING RIVER</t>
         </is>
       </c>
     </row>
@@ -9694,11 +9734,7 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G234" t="inlineStr">
-        <is>
-          <t>Elkview</t>
-        </is>
-      </c>
+      <c r="G234" t="inlineStr"/>
       <c r="H234" t="inlineStr">
         <is>
           <t>ELKVIEW</t>
@@ -9975,7 +10011,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G241" t="inlineStr"/>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Minera Peñasquito</t>
+        </is>
+      </c>
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
@@ -9989,7 +10029,7 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>PEñASQUITO</t>
+          <t>MINERA PEñASQUITO</t>
         </is>
       </c>
     </row>
@@ -10018,7 +10058,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G242" t="inlineStr"/>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>La Herradura</t>
+        </is>
+      </c>
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
@@ -10139,7 +10183,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G245" t="inlineStr"/>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Las Encinas</t>
+        </is>
+      </c>
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
@@ -10153,7 +10201,7 @@
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>ENCINAS</t>
+          <t>LAS ENCINAS</t>
         </is>
       </c>
     </row>
@@ -10264,7 +10312,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G248" t="inlineStr"/>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Mina Continental Gold Buritica</t>
+        </is>
+      </c>
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
@@ -10278,7 +10330,7 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>CONTINENTAL GOLD</t>
+          <t>MINA CONTINENTAL GOLD BURITICA</t>
         </is>
       </c>
     </row>
@@ -10381,7 +10433,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G251" t="inlineStr"/>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Mopani Copper Mine</t>
+        </is>
+      </c>
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
@@ -10395,7 +10451,7 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>MOPANI-MUFULIRA</t>
+          <t>MOPANI COPPER MINE</t>
         </is>
       </c>
     </row>
@@ -10638,7 +10694,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G258" t="inlineStr"/>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Pentalin Processing</t>
+        </is>
+      </c>
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr">
@@ -10648,7 +10708,7 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>MIDDELBURG</t>
+          <t>PENTALIN PROCESSING</t>
         </is>
       </c>
     </row>
@@ -11071,7 +11131,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G269" t="inlineStr"/>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>ECO Plant Hire Kalgold</t>
+        </is>
+      </c>
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
@@ -11085,7 +11149,7 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>BRITS OFFICE</t>
+          <t>ECO PLANT HIRE KALGOLD</t>
         </is>
       </c>
     </row>
@@ -11418,7 +11482,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G278" t="inlineStr"/>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Canadian Malartic</t>
+        </is>
+      </c>
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
@@ -11432,7 +11500,7 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>MALARTIC</t>
+          <t>CANADIAN MALARTIC</t>
         </is>
       </c>
     </row>
@@ -11461,7 +11529,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G279" t="inlineStr"/>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>Silvertip Mine</t>
+        </is>
+      </c>
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
@@ -11475,7 +11547,7 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>SILVERTIP</t>
+          <t>SILVERTIP MINE</t>
         </is>
       </c>
     </row>
@@ -11621,7 +11693,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G283" t="inlineStr"/>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>Fekola Gold Mine</t>
+        </is>
+      </c>
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
@@ -11635,7 +11711,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>SYAMA</t>
+          <t>FEKOLA GOLD MINE</t>
         </is>
       </c>
     </row>
@@ -11670,7 +11746,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>De Beers Diamond Mine</t>
+          <t>Venetia Diamond Mine</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
@@ -11690,7 +11766,7 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>DE BEERS DIAMOND MINE</t>
+          <t>VENETIA DIAMOND MINE</t>
         </is>
       </c>
     </row>
@@ -11817,7 +11893,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G287" t="inlineStr"/>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>Bellevue Gold (Develop)</t>
+        </is>
+      </c>
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
@@ -11831,7 +11911,7 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>PERTH</t>
+          <t>BELLEVUE GOLD (DEVELOP)</t>
         </is>
       </c>
     </row>
@@ -12148,7 +12228,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G296" t="inlineStr"/>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>Mount Isa Mines</t>
+        </is>
+      </c>
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
@@ -12162,7 +12246,7 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>MT ISA COPPER OPERATIONS</t>
+          <t>MOUNT ISA MINES</t>
         </is>
       </c>
     </row>
@@ -12191,7 +12275,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G297" t="inlineStr"/>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>Saucito</t>
+        </is>
+      </c>
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr">
         <is>
@@ -12417,7 +12505,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G303" t="inlineStr"/>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>ZA0042  Mining and Construction</t>
+        </is>
+      </c>
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
@@ -12431,7 +12523,7 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>LUBAMBE</t>
+          <t>ZA0042  MINING AND CONSTRUCTION</t>
         </is>
       </c>
     </row>
@@ -12869,11 +12961,7 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G315" t="inlineStr">
-        <is>
-          <t>Suncor Base Plant</t>
-        </is>
-      </c>
+      <c r="G315" t="inlineStr"/>
       <c r="H315" t="inlineStr">
         <is>
           <t>SUNCOR</t>
@@ -12891,7 +12979,7 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>SUNCOR BASE PLANT</t>
+          <t>SUNCOR</t>
         </is>
       </c>
     </row>
@@ -13318,7 +13406,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G326" t="inlineStr"/>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>Black Rock Mine Operations (BRMO)</t>
+        </is>
+      </c>
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
@@ -13332,7 +13424,7 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>HOTAZEL</t>
+          <t>BLACK ROCK MINE OPERATIONS (BRMO)</t>
         </is>
       </c>
     </row>
@@ -13361,7 +13453,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G327" t="inlineStr"/>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>Drummond Coal Mine</t>
+        </is>
+      </c>
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
@@ -13375,7 +13471,7 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>DRUMMOND</t>
+          <t>DRUMMOND COAL MINE</t>
         </is>
       </c>
     </row>
@@ -13595,7 +13691,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G333" t="inlineStr"/>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>Chepstow Plant Hire</t>
+        </is>
+      </c>
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
@@ -13609,7 +13709,7 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>STANDON - UK</t>
+          <t>CHEPSTOW PLANT HIRE</t>
         </is>
       </c>
     </row>
@@ -14816,7 +14916,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G364" t="inlineStr"/>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>Drummond Coal Mine</t>
+        </is>
+      </c>
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
@@ -14830,7 +14934,7 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>PUERTO DRUMMOND</t>
+          <t>DRUMMOND COAL MINE</t>
         </is>
       </c>
     </row>
@@ -14976,7 +15080,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G368" t="inlineStr"/>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>Pueblo Viejo</t>
+        </is>
+      </c>
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr">
         <is>
@@ -14990,7 +15098,7 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>OFICINA DE PANAMA</t>
+          <t>PUEBLO VIEJO</t>
         </is>
       </c>
     </row>
@@ -15273,11 +15381,7 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G375" t="inlineStr">
-        <is>
-          <t>Copper Mountain Mine Site</t>
-        </is>
-      </c>
+      <c r="G375" t="inlineStr"/>
       <c r="H375" t="inlineStr">
         <is>
           <t>COPPER MOUNTAIN</t>
@@ -15295,7 +15399,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>COPPER MOUNTAIN MINE SITE</t>
+          <t>COPPER MOUNTAIN</t>
         </is>
       </c>
     </row>
@@ -15328,11 +15432,7 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G376" t="inlineStr">
-        <is>
-          <t>Rainy River Project</t>
-        </is>
-      </c>
+      <c r="G376" t="inlineStr"/>
       <c r="H376" t="inlineStr">
         <is>
           <t>RAINY RIVER</t>
@@ -15350,7 +15450,7 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>RAINY RIVER PROJECT</t>
+          <t>RAINY RIVER</t>
         </is>
       </c>
     </row>
@@ -15749,7 +15849,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G387" t="inlineStr"/>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>Chuquicamata Sub Terrain</t>
+        </is>
+      </c>
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
@@ -15763,7 +15867,7 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>ACOP</t>
+          <t>CHUQUICAMATA SUB TERRAIN</t>
         </is>
       </c>
     </row>
@@ -15913,7 +16017,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G391" t="inlineStr"/>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>South Deep Gold Mine</t>
+        </is>
+      </c>
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr">
         <is>
@@ -15927,7 +16035,7 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>RANDFONTEIN OFFICE</t>
+          <t>SOUTH DEEP GOLD MINE</t>
         </is>
       </c>
     </row>
@@ -16003,7 +16111,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G393" t="inlineStr"/>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>Waterval Smelter</t>
+        </is>
+      </c>
       <c r="H393" t="inlineStr">
         <is>
           <t>RUSTENBURG SURFACE MINING BRANCH</t>
@@ -16021,7 +16133,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>RUSTENBURG SURFACE MINING BRANCH</t>
+          <t>WATERVAL SMELTER</t>
         </is>
       </c>
     </row>
@@ -16050,7 +16162,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G394" t="inlineStr"/>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>Chepstow Plant Hire</t>
+        </is>
+      </c>
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr">
         <is>
@@ -16064,7 +16180,7 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>UK SOUTH WEST</t>
+          <t>CHEPSTOW PLANT HIRE</t>
         </is>
       </c>
     </row>
@@ -16093,7 +16209,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G395" t="inlineStr"/>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>Minera Antucoya</t>
+        </is>
+      </c>
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr">
         <is>
@@ -16107,7 +16227,7 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>ANTOFAGASTA</t>
+          <t>MINERA ANTUCOYA</t>
         </is>
       </c>
     </row>
@@ -16136,7 +16256,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G396" t="inlineStr"/>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>14 Shaft Impala Platinum Mine</t>
+        </is>
+      </c>
       <c r="H396" t="inlineStr"/>
       <c r="I396" t="inlineStr">
         <is>
@@ -16150,7 +16274,7 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>BAFOKENG IMPALA #14</t>
+          <t>14 SHAFT IMPALA PLATINUM MINE</t>
         </is>
       </c>
     </row>
@@ -16214,7 +16338,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G398" t="inlineStr"/>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>AU Kalgoorlie Consolidated Gold Mines</t>
+        </is>
+      </c>
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
@@ -16228,7 +16356,7 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>KCGM</t>
+          <t>AU KALGOORLIE CONSOLIDATED GOLD MINES</t>
         </is>
       </c>
     </row>
@@ -16456,7 +16584,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G404" t="inlineStr"/>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>Subika Gold Mine</t>
+        </is>
+      </c>
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
         <is>
@@ -16470,7 +16602,7 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>SUBIKA</t>
+          <t>SUBIKA GOLD MINE</t>
         </is>
       </c>
     </row>
@@ -16835,7 +16967,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G413" t="inlineStr"/>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>Chirano Gold Mine</t>
+        </is>
+      </c>
       <c r="H413" t="inlineStr"/>
       <c r="I413" t="inlineStr">
         <is>
@@ -16849,7 +16985,7 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>CHIRANO</t>
+          <t>CHIRANO GOLD MINE</t>
         </is>
       </c>
     </row>
@@ -17159,7 +17295,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G421" t="inlineStr"/>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>Aggregate Industries</t>
+        </is>
+      </c>
       <c r="H421" t="inlineStr"/>
       <c r="I421" t="inlineStr">
         <is>
@@ -17173,7 +17313,7 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>ALFRETON DEPOT</t>
+          <t>AGGREGATE INDUSTRIES</t>
         </is>
       </c>
     </row>
@@ -17444,7 +17584,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G428" t="inlineStr"/>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>St Ives Gold Mine</t>
+        </is>
+      </c>
       <c r="H428" t="inlineStr"/>
       <c r="I428" t="inlineStr">
         <is>
@@ -17458,7 +17602,7 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>ST. IVES</t>
+          <t>ST IVES GOLD MINE</t>
         </is>
       </c>
     </row>
@@ -18422,11 +18566,7 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G454" t="inlineStr">
-        <is>
-          <t>Minera Spence</t>
-        </is>
-      </c>
+      <c r="G454" t="inlineStr"/>
       <c r="H454" t="inlineStr">
         <is>
           <t>SPENCE</t>
@@ -18444,7 +18584,7 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>MINERA SPENCE</t>
+          <t>SPENCE</t>
         </is>
       </c>
     </row>
@@ -18543,7 +18683,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G457" t="inlineStr"/>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>ECO Plant Hire Komatipoort</t>
+        </is>
+      </c>
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr">
         <is>
@@ -18557,7 +18701,7 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>BARBERTON</t>
+          <t>ECO PLANT HIRE KOMATIPOORT</t>
         </is>
       </c>
     </row>
@@ -19381,7 +19525,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G479" t="inlineStr"/>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>Site C Dam Project</t>
+        </is>
+      </c>
       <c r="H479" t="inlineStr"/>
       <c r="I479" t="inlineStr">
         <is>
@@ -19395,7 +19543,7 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>PEACE RIVER HYDRO PARTNERS</t>
+          <t>SITE C DAM PROJECT</t>
         </is>
       </c>
     </row>
@@ -20272,11 +20420,7 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G504" t="inlineStr">
-        <is>
-          <t>CNUL Oil Sands Projects</t>
-        </is>
-      </c>
+      <c r="G504" t="inlineStr"/>
       <c r="H504" t="inlineStr">
         <is>
           <t>JACKPINE MINE</t>
@@ -20294,7 +20438,7 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>CNUL OIL SANDS PROJECTS</t>
+          <t>JACKPINE MINE</t>
         </is>
       </c>
     </row>
@@ -20891,11 +21035,7 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G521" t="inlineStr">
-        <is>
-          <t>CNUL Oil Sands Projects</t>
-        </is>
-      </c>
+      <c r="G521" t="inlineStr"/>
       <c r="H521" t="inlineStr">
         <is>
           <t>MUSKEG RIVER MINE</t>
@@ -20913,7 +21053,7 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>CNUL OIL SANDS PROJECTS</t>
+          <t>MUSKEG RIVER MINE</t>
         </is>
       </c>
     </row>
@@ -20989,11 +21129,7 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G523" t="inlineStr">
-        <is>
-          <t>Horizon Oil Sands</t>
-        </is>
-      </c>
+      <c r="G523" t="inlineStr"/>
       <c r="H523" t="inlineStr">
         <is>
           <t>HORIZON</t>
@@ -21011,7 +21147,7 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>HORIZON OIL SANDS</t>
+          <t>HORIZON</t>
         </is>
       </c>
     </row>
@@ -21079,11 +21215,7 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G525" t="inlineStr">
-        <is>
-          <t>Kearl Oil Sands Project</t>
-        </is>
-      </c>
+      <c r="G525" t="inlineStr"/>
       <c r="H525" t="inlineStr">
         <is>
           <t>KEARL</t>
@@ -21101,7 +21233,7 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>KEARL OIL SANDS PROJECT</t>
+          <t>KEARL</t>
         </is>
       </c>
     </row>
@@ -21764,7 +21896,11 @@
           <t>ASSOCIATE BASIC</t>
         </is>
       </c>
-      <c r="G544" t="inlineStr"/>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>Gahcho Kue Mine</t>
+        </is>
+      </c>
       <c r="H544" t="inlineStr"/>
       <c r="I544" t="inlineStr">
         <is>
@@ -21778,7 +21914,7 @@
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>HAY RIVER</t>
+          <t>GAHCHO KUE MINE</t>
         </is>
       </c>
     </row>
@@ -22325,7 +22461,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G559" t="inlineStr"/>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>Chepstow Plant Hire</t>
+        </is>
+      </c>
       <c r="H559" t="inlineStr"/>
       <c r="I559" t="inlineStr">
         <is>
@@ -22339,7 +22479,7 @@
       </c>
       <c r="K559" t="inlineStr">
         <is>
-          <t>WARRINGTON</t>
+          <t>CHEPSTOW PLANT HIRE</t>
         </is>
       </c>
     </row>
@@ -24376,7 +24516,11 @@
           <t>MINING</t>
         </is>
       </c>
-      <c r="G616" t="inlineStr"/>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>Hammerstone Infrastructure Materials Ltd</t>
+        </is>
+      </c>
       <c r="H616" t="inlineStr"/>
       <c r="I616" t="inlineStr">
         <is>
@@ -24390,7 +24534,7 @@
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>FORT MCKAY</t>
+          <t>HAMMERSTONE INFRASTRUCTURE MATERIALS LTD</t>
         </is>
       </c>
     </row>
@@ -25263,7 +25407,11 @@
           <t>STORE</t>
         </is>
       </c>
-      <c r="G641" t="inlineStr"/>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>Condrain</t>
+        </is>
+      </c>
       <c r="H641" t="inlineStr"/>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr">
@@ -25273,7 +25421,7 @@
       </c>
       <c r="K641" t="inlineStr">
         <is>
-          <t>STONEY CREEK STORE</t>
+          <t>CONDRAIN</t>
         </is>
       </c>
     </row>
@@ -29288,7 +29436,11 @@
           <t>STORE</t>
         </is>
       </c>
-      <c r="G756" t="inlineStr"/>
+      <c r="G756" t="inlineStr">
+        <is>
+          <t>Lafarge Canada</t>
+        </is>
+      </c>
       <c r="H756" t="inlineStr"/>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr">
@@ -29298,7 +29450,7 @@
       </c>
       <c r="K756" t="inlineStr">
         <is>
-          <t>SUDBURY STORE</t>
+          <t>LAFARGE CANADA</t>
         </is>
       </c>
     </row>
